--- a/OCR/output_file_11.xlsx
+++ b/OCR/output_file_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:AQ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,115 +434,2516 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>img_6.jpeg</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ONE CAPSULE:,</t>
-        </is>
-      </c>
+          <t>['TAKE ONE TABLET BYII']</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['MORNING AND TAKE OI']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['EVERY EVENING FORHE']</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['SACUBITRIL']</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['Rx# 156426264']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['DAVIES W:']</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>['VA #o5452 23589']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['MO,64128-2295']</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>['the trnsfer of this']</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>['24MGNALSARI']</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>['PROVIdER:']</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[' 0 #7etat']</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>["Pichibts'"]</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>['cng ']</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>//////</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>img_10.jpeg</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BEDTIME FOR PROST</t>
-        </is>
-      </c>
+          <t>['TRAMADOL HC']</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['50 MG TABLET']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['Common brand(s): Ultram']</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['Take 1 tablet by']</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['4 to 6 hours']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>["2 26'20"]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>['mou']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['every']</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>//////</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>img_4.jpeg</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAME TIME EACH DHj"</t>
-        </is>
-      </c>
+          <t>['0']</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['@VKARE']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['NDC 42291-657-12']</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>['Omega-3-Acid']</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>['K']</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>['Ethyl Esters']</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>['Capsules,']</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>['W']</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>['gram']</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>['*']</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>['D']</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>['J']</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>['Capsules']</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>['Rx']</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>['USP']</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>['Only']</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>['120']</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>//////</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>img_1.jpeg</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>['Ch']</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['HAV']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['bu']</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['6129']</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['Cmocrharmagy']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>['Rd.']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['#8554']</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>['Gelebate']</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>['Gladstone. MO']</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>['CvS_']</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>['camp']</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>['WnGc#']</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>['TEL: -']</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>['816-453-2220']</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>['Roast']</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>['RX:']</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>['1701309R7']</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>['QTY: 60']</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>['REFILL:7 bv 1/16/24']</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>['PRSCBR: D_']</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>['Allen']</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>['DATE FILLED: 5i15/23']</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>['Mdd']</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>['DISCARD AFTER: 5/14/24']</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>['RPH:']</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>['A Leavitt']</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>['MFR: GLENMARK PHARMA']</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>['EVe']</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>['is a WHITE DARK']</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>['PINK . OBLONG-shaped']</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>['CAPSULE imprinted with']</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>['bedw']</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>['on one side and 689 on']</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>['Ibe pther orugnto']</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>['com']</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>['diltuaa']</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>['Mar']</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>['Anwy']</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>['This']</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>//////</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>img_12.jpeg</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TAMSULOSIN HCL 0 4</t>
-        </is>
-      </c>
+          <t>['#']</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['TAKE ONE CAPSULE  ']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['BEDTIME FOR PROSTN']</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['SAME TIME EACH Damag']</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['TAMSULOSIN HCL 0.']</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['Rxl 15445944B']</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>['0']</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>['PROVIDER: BRANDT']</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>['M']</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>['VA']</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>['KANSAS']</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>['589']</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>['MO , 64128-2295']</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>['0']</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>['the transfer of thls drug to arE']</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>['4M6:']</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>['L']</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>['7it was "']</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>['CITY']</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>['4702']</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>['Fish']</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>["'pesme"]</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>['ILaw =']</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>["prohlblts '"]</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>//////</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>img_7.jpeg</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rx# 15445944B</t>
-        </is>
-      </c>
+          <t>['4375MGrosead Fhagkra ']</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['Mn']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['Kansas City, MO']</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>['CVS.com']</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['IWMM']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['TEL: 816-452-8079']</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>['RX:']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['155800']</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>['QTy: 90']</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>['NOB']</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>['REFILL: 0 Refills']</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>['PRSCBR: B. Krumm']</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>['DATE FILLED: 4/20/23']</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>['MdU']</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>['DISCARD AFTER: 2/29/24']</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>['RPH: Janie']</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>['Langner']</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>['MFR: M (LAN']</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>['E']</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>['This is a YELLOW;']</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>['OBLONG-shaped TABLET']</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>['imprirted with M on the']</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>['Iront and L 8 on Ihe']</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>['Bed']</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>['Wr CvS convdrugirto']</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>['LEvUp"']</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>['back']</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>//////</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>img_13.jpeg</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PROVIDER: BRANDT 0</t>
-        </is>
-      </c>
+          <t>['Jrowsiness.']</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['155-530-06']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['marijuana']</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['effect. Use']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['Trospium C hloride']</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>['perating a']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['sel (e.g.']</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>['boi']</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>['Tablets, USP']</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>['y_']</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>['20 mg']</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>['NT']</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>['ION SHEETI']</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>['Pharmacist: Please Dispense with']</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>['L WARNING']</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>['Patient Information Leafiet Provided']</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>['Separately to Each Patient.']</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>['12523-06']</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>['60 Tablets']</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>['Rx only']</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>['05/17/2']</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>['er:']</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>['8525122']</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>['Avet Pharma']</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>['PIszO/Round']</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>['231=']</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>['NDC']</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>//////</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>img_8.jpeg</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>VA</t>
-        </is>
-      </c>
+          <t>['TAKE ONE TABLET BYM']</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['DAY FOR HEARTAVOI']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['GRAPEFRUIT JUICE U ']</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>['IS RECOMMENDED']</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['AMIODARONE HCL']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>["Rx# 15572745C'"]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>['REED M']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['KANSAS CITY']</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>['64128-2295']</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>['to8']</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>['prohlblts tho transter ol thls =']</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>['(PACEROHEL']</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>['PROVIDER: =']</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>['589']</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>['VAvo;']</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>['0']</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>['Fatogh']</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>['drug']</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>['Law']</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>//////</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>img_16.jpeg</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>KANSAS CITY 589</t>
-        </is>
-      </c>
+          <t>['HAl']</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['bl']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['celebrate']</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>['camp']</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['Roast Mc']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['DILTIAZEM']</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>['4E']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['12hR ER 60 MG']</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>['CAP']</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>['Common brand(s) Cardizem Sr']</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>['Take']</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>['capsule by']</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>['mouth every 12 hous']</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>['j']</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>//////</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>img_11.jpeg</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MO, 64128-2295</t>
-        </is>
-      </c>
+          <t>['METOPROLOL']</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['SUCC ER 50 MG']</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['TAB']</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>['brand(s): Toprol XI']</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['tablet by']</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>['Common']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['moumh |']</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>['Take']</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>['every']</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>['day']</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>//////</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>img_15.jpeg</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TAKE</t>
-        </is>
-      </c>
+          <t>['TAKE ONE TABLET BYI']</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['MORNING AND TAKE OE']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['EVERY EVENING FORHE']</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>['SACUBITRIL']</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['15642626A']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>['DAVIES W:']</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>['VA Kovs4S28229']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['MO,64128-2295']</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>['drug to any']</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>['the transfer of this']</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>['24MGNALSARII']</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>['Rx#']</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>['PROVIDER:']</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>['589']</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>["'persmavi"]</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>['Ainh']</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>['ILaw -']</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>['prohlbits']</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>//////</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>img_5.jpeg</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>['ause']</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['pl and']</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['marijuana']</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>['Jiry this effect']</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>['may']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>['NDC 23155-530-06']</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>['Use']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['vhen operating a']</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>['Trospium (ll']</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>['e; vessel (e:g,, boat),']</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>['Tablets; USP']</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>['Ichinery:']</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>['PATIENT']</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>['20 mg']</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>['RMATION SHEET FOR']</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>['Pharmacist: PleaseDsay']</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>['TTIONAL WARNINGS']</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>['Patient Information']</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>['Separately to Each Rabz:']</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>['23155.0530-06']</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>['60 Tablets']</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>['95,23220511']</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>['k']</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>['Ird After;']</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>['B85i2312020']</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>['drowsiness']</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>['Leatr']</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>['712024']</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>['Aretl']</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>['Refils']</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>['HPIS?O/Roundi']</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>['eSC:']</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>//////</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>img_14.jpeg</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['NDC 69238-1154-9']</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['I']</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>['Ezetimibe']</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>['Shat']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>['M']</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>['Tablets, USP']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['I6L']</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>['I']</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>['10 mg']</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>['Ib']</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>['Rx only']</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>['02']</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>['Khy']</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>['amneal']</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>['Tablers']</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>//////</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>img_2.jpeg</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>['ONE CAPSULE:,']</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>['BEDTIME FOR PROST']</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['SAME TIME EACH DHj"']</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>['TAMSULOSIN HCL 0 4']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>['Rx# 15445944B']</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>['PROVIDER: BRANDT 0']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['VA']</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>['KANSAS CITY 589']</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>['MO, 64128-2295']</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>['TAKE']</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>//////</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>img_3.jpeg</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>['ause']</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['pl and']</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['marijuana']</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>['Jiry this effect']</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>['may']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>['NDC 23155-530-06']</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>['Use']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['vhen operating a']</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>['Trospium (ll']</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>['e; vessel (e:g,, boat),']</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>['Tablets; USP']</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>['Ichinery:']</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>['PATIENT']</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>['20 mg']</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>['RMATION SHEET FOR']</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>['Pharmacist: PleaseDsay']</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>['TTIONAL WARNINGS']</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>['Patient Information']</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>['Separately to Each Rabz:']</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>['23155.0530-06']</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>['60 Tablets']</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>['95,23220511']</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>['k']</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>['Ird After;']</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>['B85i2312020']</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>['drowsiness']</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>['Leatr']</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>['712024']</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>['Aretl']</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>['Refils']</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>['HPIS?O/Roundi']</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>['eSC:']</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>//////</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>img_9.jpeg</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>['TAKE ONE TABLETBI']</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['TIMES A DAY FORO']</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['TAKE ON AN EMPTVI']</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>['LEAST ONE HOURB']</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>['TROSPIUM CL']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>['TA']</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>['Rx# 15852093']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['KHALED D:']</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>['KANSAS']</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>['589']</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>['VA']</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>['MO, 64128-2295']</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>["'prohlblta tho transfor of Ihls"]</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>['20MG']</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>['PROVIDER:']</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>['CITY']</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>['feugxh']</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>['NAI']</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>['Itora']</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>['drug ']</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>['Law']</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>//////</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>img_0.jpeg</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>['Xlcarc']</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>['Pharmaceuticals Inc.']</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['NDC 72865-230-90']</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>['Pantoprazole Sodium']</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>['Delayed-Release']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>['Tablets; USP']</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>['40 mg']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['PHARMACIST: Dispense the accompanying |']</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>['Guide to each patient:']</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>['Rx only']</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>['Medication _']</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>['Tablets']</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>//////</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
